--- a/mosip_master/xlsx/applicant_valid_document.xlsx
+++ b/mosip_master/xlsx/applicant_valid_document.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="35">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t xml:space="preserve">016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ara</t>
   </si>
 </sst>
 </file>
@@ -247,15 +253,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B64" activeCellId="0" sqref="B64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A65" activeCellId="0" sqref="A65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.29"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.52"/>
   </cols>
   <sheetData>
@@ -1347,10 +1355,2153 @@
         <v>9</v>
       </c>
     </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
